--- a/Riesgo/DataTarea_Exogenas_Riesgo9.xlsx
+++ b/Riesgo/DataTarea_Exogenas_Riesgo9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main/Riesgo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcrpgob-my.sharepoint.com/personal/flavio_abanto_bcrp_gob_pe/Documents/DMM/CUECOPolMon-main/CUECOPolMon-main (1)/CUECOPolMon-main/Riesgo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{538CA2CC-E9B2-4FE0-AD08-0807DA7F52A2}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_0231D75C2C276BC4C96F670335E2EB0A5EB77CA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93AC1E7-E03B-46F9-8E34-446250F362D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,10 +581,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>2.9430951174366471</v>
+        <v>3.1930951174366471</v>
       </c>
       <c r="D3" s="4">
-        <v>0.91384956126651085</v>
+        <v>1.163849561266511</v>
       </c>
       <c r="E3" s="5">
         <v>-0.80513363517789194</v>
@@ -599,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>2.875390183492327</v>
+        <v>3.125390183492327</v>
       </c>
       <c r="D4" s="4">
-        <v>1.1266701743315761</v>
+        <v>1.3766701743315761</v>
       </c>
       <c r="E4" s="5">
         <v>-0.67154856357217807</v>
@@ -617,10 +617,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>2.5680305634547</v>
+        <v>3.0680305634547</v>
       </c>
       <c r="D5" s="4">
-        <v>1.2955613233791039</v>
+        <v>1.5455613233791039</v>
       </c>
       <c r="E5" s="5">
         <v>-1.0882648056107822</v>
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>2.519435493358821</v>
+        <v>3.019435493358821</v>
       </c>
       <c r="D6" s="4">
-        <v>1.424829384708675</v>
+        <v>1.674829384708675</v>
       </c>
       <c r="E6" s="5">
         <v>-1.0417982177364817</v>
@@ -653,13 +653,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>2.2282657499735929</v>
+        <v>2.7282657499735929</v>
       </c>
       <c r="D7" s="4">
-        <v>1.520894955175071</v>
+        <v>1.770894955175071</v>
       </c>
       <c r="E7" s="5">
-        <v>-0.52040548508229667</v>
+        <v>-1.0204054850822966</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -671,13 +671,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>2.1933867433776282</v>
+        <v>2.6933867433776282</v>
       </c>
       <c r="D8" s="4">
-        <v>1.590408717430285</v>
+        <v>1.840408717430285</v>
       </c>
       <c r="E8" s="5">
-        <v>-0.515010570655839</v>
+        <v>-1.015010570655839</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -689,13 +689,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
-        <v>2.1638372489895268</v>
+        <v>2.6638372489895268</v>
       </c>
       <c r="D9" s="4">
-        <v>1.6394703557769941</v>
+        <v>1.8894703557769941</v>
       </c>
       <c r="E9" s="5">
-        <v>-0.26901486379144895</v>
+        <v>-0.51901486379144901</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -707,10 +707,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>2.1388029173439271</v>
+        <v>2.6388029173439271</v>
       </c>
       <c r="D10" s="4">
-        <v>1.673303583980273</v>
+        <v>1.923303583980273</v>
       </c>
       <c r="E10" s="5">
         <v>-0.27785400560905588</v>
